--- a/EntryEngine项目/运维工具/LauncherServer/_C.xlsx
+++ b/EntryEngine项目/运维工具/LauncherServer/_C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ushort</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>连接服务端的公钥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PublicKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,50 @@
   </si>
   <si>
     <t>PortManagerBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对启动器开放的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对管理器网页版开放的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对管理器开放的端口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的管理员账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的管理员密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动器连接服务端的公钥，要与启动器配置的一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,13 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -445,13 +489,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -461,16 +505,22 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
       <c r="D3">
         <v>33258</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="D4">
         <v>33257</v>
@@ -483,22 +533,53 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
       <c r="D5">
         <v>30001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
